--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amh</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Amh</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H2">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I2">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J2">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.022869551112</v>
+        <v>0.3140977635733334</v>
       </c>
       <c r="R2">
-        <v>0.205825960008</v>
+        <v>2.82687987216</v>
       </c>
       <c r="S2">
-        <v>0.0001766046788814401</v>
+        <v>0.002801986976847537</v>
       </c>
       <c r="T2">
-        <v>0.0001766046788814401</v>
+        <v>0.002801986976847537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H3">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I3">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J3">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>1.503056859173778</v>
+        <v>8.819064136729336</v>
       </c>
       <c r="R3">
-        <v>13.527511732564</v>
+        <v>79.37157723056401</v>
       </c>
       <c r="S3">
-        <v>0.01160699974629791</v>
+        <v>0.07867264821619602</v>
       </c>
       <c r="T3">
-        <v>0.0116069997462979</v>
+        <v>0.078672648216196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H4">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I4">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J4">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.00762934873288889</v>
+        <v>0.1613302695746666</v>
       </c>
       <c r="R4">
-        <v>0.068664138596</v>
+        <v>1.451972426172</v>
       </c>
       <c r="S4">
-        <v>5.891583426573573E-05</v>
+        <v>0.001439186669706987</v>
       </c>
       <c r="T4">
-        <v>5.891583426573572E-05</v>
+        <v>0.001439186669706987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H5">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I5">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J5">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>0.6477086174795557</v>
+        <v>1.457993886017333</v>
       </c>
       <c r="R5">
-        <v>5.829377557316</v>
+        <v>13.121944974156</v>
       </c>
       <c r="S5">
-        <v>0.005001776022560283</v>
+        <v>0.0130063959528642</v>
       </c>
       <c r="T5">
-        <v>0.005001776022560282</v>
+        <v>0.0130063959528642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H6">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I6">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J6">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>0.08314332544444444</v>
+        <v>0.9181728150760001</v>
       </c>
       <c r="R6">
-        <v>0.748289929</v>
+        <v>8.263555335684002</v>
       </c>
       <c r="S6">
-        <v>0.0006420545912484713</v>
+        <v>0.00819078824716858</v>
       </c>
       <c r="T6">
-        <v>0.0006420545912484712</v>
+        <v>0.008190788247168578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,46 +853,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H7">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I7">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J7">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>0.014343283424</v>
+        <v>0.03315996399600001</v>
       </c>
       <c r="R7">
-        <v>0.129089550816</v>
+        <v>0.298439675964</v>
       </c>
       <c r="S7">
-        <v>0.0001107626009271276</v>
+        <v>0.0002958116804541728</v>
       </c>
       <c r="T7">
-        <v>0.0001107626009271276</v>
+        <v>0.0002958116804541728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H8">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I8">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J8">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>0.134185235112</v>
+        <v>0.3283438135022222</v>
       </c>
       <c r="R8">
-        <v>1.207667116008</v>
+        <v>2.95509432152</v>
       </c>
       <c r="S8">
-        <v>0.001036213620526672</v>
+        <v>0.002929072397380774</v>
       </c>
       <c r="T8">
-        <v>0.001036213620526672</v>
+        <v>0.002929072397380774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H9">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I9">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J9">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>8.819064136729333</v>
+        <v>9.219056886084225</v>
       </c>
       <c r="R9">
-        <v>79.371577230564</v>
+        <v>82.97151197475802</v>
       </c>
       <c r="S9">
-        <v>0.06810312901527267</v>
+        <v>0.0822408827103718</v>
       </c>
       <c r="T9">
-        <v>0.06810312901527267</v>
+        <v>0.08224088271037179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H10">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I10">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J10">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>0.04476458451066667</v>
+        <v>0.1686474788704444</v>
       </c>
       <c r="R10">
-        <v>0.402881260596</v>
+        <v>1.517827309834</v>
       </c>
       <c r="S10">
-        <v>0.0003456838760870636</v>
+        <v>0.001504461649447014</v>
       </c>
       <c r="T10">
-        <v>0.0003456838760870636</v>
+        <v>0.001504461649447014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H11">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I11">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J11">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>3.800377746590667</v>
+        <v>1.524121875786889</v>
       </c>
       <c r="R11">
-        <v>34.203399719316</v>
+        <v>13.717096882082</v>
       </c>
       <c r="S11">
-        <v>0.02934751488028314</v>
+        <v>0.01359630708127038</v>
       </c>
       <c r="T11">
-        <v>0.02934751488028314</v>
+        <v>0.01359630708127038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H12">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I12">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J12">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>0.4878367143333334</v>
+        <v>0.9598169694886667</v>
       </c>
       <c r="R12">
-        <v>4.390530429</v>
+        <v>8.638352725398001</v>
       </c>
       <c r="S12">
-        <v>0.003767203206546924</v>
+        <v>0.00856228525179108</v>
       </c>
       <c r="T12">
-        <v>0.003767203206546924</v>
+        <v>0.008562285251791079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,55 +1216,55 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H13">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I13">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J13">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>0.084158051424</v>
+        <v>0.034663949562</v>
       </c>
       <c r="R13">
-        <v>0.757422462816</v>
+        <v>0.311975546058</v>
       </c>
       <c r="S13">
-        <v>0.000649890571714132</v>
+        <v>0.0003092283565914252</v>
       </c>
       <c r="T13">
-        <v>0.000649890571714132</v>
+        <v>0.0003092283565914251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H14">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I14">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J14">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>0.145238090748</v>
+        <v>0.5946267661200001</v>
       </c>
       <c r="R14">
-        <v>1.307142816732</v>
+        <v>5.35164089508</v>
       </c>
       <c r="S14">
-        <v>0.001121566674058819</v>
+        <v>0.005304515497972364</v>
       </c>
       <c r="T14">
-        <v>0.001121566674058819</v>
+        <v>0.005304515497972363</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H15">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I15">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J15">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>9.545491620845111</v>
+        <v>16.69560307647301</v>
       </c>
       <c r="R15">
-        <v>85.909424587606</v>
+        <v>150.260427688257</v>
       </c>
       <c r="S15">
-        <v>0.07371279279636908</v>
+        <v>0.1489372667245081</v>
       </c>
       <c r="T15">
-        <v>0.07371279279636907</v>
+        <v>0.148937266724508</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H16">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I16">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J16">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>0.04845184928155556</v>
+        <v>0.305418591279</v>
       </c>
       <c r="R16">
-        <v>0.436066643534</v>
+        <v>2.748767321511</v>
       </c>
       <c r="S16">
-        <v>0.0003741579028672391</v>
+        <v>0.002724562268495991</v>
       </c>
       <c r="T16">
-        <v>0.000374157902867239</v>
+        <v>0.00272456226849599</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H17">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I17">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J17">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>4.113415366268223</v>
+        <v>2.760166706067</v>
       </c>
       <c r="R17">
-        <v>37.02073829641401</v>
+        <v>24.841500354603</v>
       </c>
       <c r="S17">
-        <v>0.03176487357832758</v>
+        <v>0.02462275145274069</v>
       </c>
       <c r="T17">
-        <v>0.03176487357832757</v>
+        <v>0.02462275145274069</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H18">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I18">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J18">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>0.5280198892777779</v>
+        <v>1.738217189313</v>
       </c>
       <c r="R18">
-        <v>4.7521790035</v>
+        <v>15.643954703817</v>
       </c>
       <c r="S18">
-        <v>0.004077508234955491</v>
+        <v>0.01550619740802591</v>
       </c>
       <c r="T18">
-        <v>0.004077508234955491</v>
+        <v>0.0155061974080259</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,55 +1588,55 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.363609</v>
+      </c>
+      <c r="H19">
+        <v>1.090827</v>
+      </c>
+      <c r="I19">
+        <v>0.1976553022512904</v>
+      </c>
+      <c r="J19">
+        <v>0.1976553022512904</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.2078886666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.6236660000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.11175432133099</v>
-      </c>
-      <c r="J19">
-        <v>0.11175432133099</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>0.09109016129600001</v>
+        <v>0.062776003023</v>
       </c>
       <c r="R19">
-        <v>0.819811451664</v>
+        <v>0.564984027207</v>
       </c>
       <c r="S19">
-        <v>0.0007034221444118157</v>
+        <v>0.0005600088995473547</v>
       </c>
       <c r="T19">
-        <v>0.0007034221444118156</v>
+        <v>0.0005600088995473545</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H20">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I20">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J20">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>0.3451966895460001</v>
+        <v>1.259340129448889</v>
       </c>
       <c r="R20">
-        <v>3.106770205914</v>
+        <v>11.33406116504</v>
       </c>
       <c r="S20">
-        <v>0.002665699480048785</v>
+        <v>0.01123425586350421</v>
       </c>
       <c r="T20">
-        <v>0.002665699480048785</v>
+        <v>0.0112342558635042</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H21">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I21">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J21">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>22.68738242588189</v>
+        <v>35.3590590560629</v>
       </c>
       <c r="R21">
-        <v>204.186441832937</v>
+        <v>318.2315315045661</v>
       </c>
       <c r="S21">
-        <v>0.1751979244525234</v>
+        <v>0.3154292531775372</v>
       </c>
       <c r="T21">
-        <v>0.1751979244525234</v>
+        <v>0.3154292531775372</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H22">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I22">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J22">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>0.1151586191214445</v>
+        <v>0.6468358139797776</v>
       </c>
       <c r="R22">
-        <v>1.036427572093</v>
+        <v>5.821522325818</v>
       </c>
       <c r="S22">
-        <v>0.0008892850957490524</v>
+        <v>0.005770259254032417</v>
       </c>
       <c r="T22">
-        <v>0.0008892850957490522</v>
+        <v>0.005770259254032416</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H23">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I23">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J23">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>9.776618240094779</v>
+        <v>5.845664700901556</v>
       </c>
       <c r="R23">
-        <v>87.98956416085301</v>
+        <v>52.610982308114</v>
       </c>
       <c r="S23">
-        <v>0.07549761324053263</v>
+        <v>0.05214770132904606</v>
       </c>
       <c r="T23">
-        <v>0.07549761324053261</v>
+        <v>0.05214770132904605</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H24">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I24">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J24">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>1.254978751472222</v>
+        <v>3.681312017760667</v>
       </c>
       <c r="R24">
-        <v>11.29480876325</v>
+        <v>33.131808159846</v>
       </c>
       <c r="S24">
-        <v>0.009691275457107122</v>
+        <v>0.03284005659298318</v>
       </c>
       <c r="T24">
-        <v>0.00969127545710712</v>
+        <v>0.03284005659298317</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H25">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I25">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J25">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>0.216499831192</v>
+        <v>0.132951196074</v>
       </c>
       <c r="R25">
-        <v>1.948498480728</v>
+        <v>1.196560764666</v>
       </c>
       <c r="S25">
-        <v>0.001671868546011239</v>
+        <v>0.001186024108282695</v>
       </c>
       <c r="T25">
-        <v>0.001671868546011239</v>
+        <v>0.001186024108282695</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,25 +2022,25 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H26">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I26">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J26">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>0.652129893546</v>
+        <v>0.5119943344</v>
       </c>
       <c r="R26">
-        <v>5.869169041914001</v>
+        <v>4.6079490096</v>
       </c>
       <c r="S26">
-        <v>0.005035918277304885</v>
+        <v>0.004567372403062596</v>
       </c>
       <c r="T26">
-        <v>0.005035918277304885</v>
+        <v>0.004567372403062596</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,25 +2084,25 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H27">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I27">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J27">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>42.8599715301041</v>
+        <v>14.37549513676</v>
       </c>
       <c r="R27">
-        <v>385.739743770937</v>
+        <v>129.37945623084</v>
       </c>
       <c r="S27">
-        <v>0.3309759545289016</v>
+        <v>0.1282401686044872</v>
       </c>
       <c r="T27">
-        <v>0.3309759545289016</v>
+        <v>0.1282401686044872</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,25 +2146,25 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H28">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I28">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J28">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>0.2175524282325556</v>
+        <v>0.2629760334799999</v>
       </c>
       <c r="R28">
-        <v>1.957971854093</v>
+        <v>2.36678430132</v>
       </c>
       <c r="S28">
-        <v>0.001679996976754304</v>
+        <v>0.002345942908510859</v>
       </c>
       <c r="T28">
-        <v>0.001679996976754304</v>
+        <v>0.002345942908510858</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,25 +2208,25 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H29">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I29">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J29">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>18.46954274253922</v>
+        <v>2.37659956804</v>
       </c>
       <c r="R29">
-        <v>166.225884682853</v>
+        <v>21.38939611236</v>
       </c>
       <c r="S29">
-        <v>0.1426266588775174</v>
+        <v>0.02120104569695485</v>
       </c>
       <c r="T29">
-        <v>0.1426266588775174</v>
+        <v>0.02120104569695485</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H30">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I30">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J30">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>2.370848807027778</v>
+        <v>1.49666547756</v>
       </c>
       <c r="R30">
-        <v>21.33763926325</v>
+        <v>13.46998929804</v>
       </c>
       <c r="S30">
-        <v>0.01830831703652838</v>
+        <v>0.01335137547339244</v>
       </c>
       <c r="T30">
-        <v>0.01830831703652838</v>
+        <v>0.01335137547339244</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,55 +2332,55 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H31">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I31">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J31">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>0.4090016391919999</v>
+        <v>0.05405232275999999</v>
       </c>
       <c r="R31">
-        <v>3.681014752728</v>
+        <v>0.4864709048399999</v>
       </c>
       <c r="S31">
-        <v>0.003158418055419757</v>
+        <v>0.0004821871468260846</v>
       </c>
       <c r="T31">
-        <v>0.003158418055419757</v>
+        <v>0.0004821871468260845</v>
       </c>
     </row>
   </sheetData>
